--- a/template/busia/PROFORMA_Invoice.xlsx
+++ b/template/busia/PROFORMA_Invoice.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomeLabs\Desktop\OGEFREM\Busia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomeLabs\Desktop\OGEFREM docs\python-prototype-main\template\busia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1872" yWindow="0" windowWidth="7356" windowHeight="9768"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="7356" windowHeight="9768"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1094,6 +1094,37 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,7 +1149,6 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1186,36 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,7 +1649,7 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
@@ -1667,35 +1667,35 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1"/>
     <row r="2" spans="2:8" ht="112.5" customHeight="1">
-      <c r="B2" s="57"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="53"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="64"/>
     </row>
     <row r="4" spans="2:8" ht="15.6">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1">
       <c r="B5" s="1"/>
@@ -1705,16 +1705,16 @@
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="69" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="70"/>
-      <c r="G6" s="71"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="81"/>
       <c r="H6" s="7">
         <f ca="1">TODAY()</f>
-        <v>45882</v>
+        <v>45888</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
@@ -1727,44 +1727,44 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8" ht="32.700000000000003" customHeight="1">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="61"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="50"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="61"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
     </row>
     <row r="11" spans="2:8" ht="15.6">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="87"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1">
       <c r="B12" s="2"/>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="86" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1824,7 +1824,7 @@
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1">
-      <c r="B15" s="77"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1847,18 +1847,18 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="20">
         <f>SUM(F14:F15)</f>
         <v>60</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="75"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
     </row>
     <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
       <c r="B17" s="16" t="s">
@@ -1911,10 +1911,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23">
@@ -1930,12 +1930,12 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.2" customHeight="1" thickBot="1">
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
+      <c r="C20" s="89"/>
+      <c r="D20" s="89"/>
+      <c r="E20" s="89"/>
       <c r="F20" s="24">
         <v>0</v>
       </c>
@@ -1948,12 +1948,12 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="84"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="53"/>
       <c r="F21" s="38">
         <f>(F16*1.17)+F19-(F20)</f>
         <v>73.799999999999983</v>
@@ -1987,33 +1987,33 @@
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8" ht="21" customHeight="1">
-      <c r="B24" s="80" t="s">
+      <c r="B24" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="45"/>
@@ -2029,12 +2029,12 @@
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
@@ -2049,13 +2049,13 @@
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
@@ -2069,25 +2069,18 @@
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B16:E16"/>
@@ -2104,6 +2097,13 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">

--- a/template/busia/PROFORMA_Invoice.xlsx
+++ b/template/busia/PROFORMA_Invoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HomeLabs\Desktop\OGEFREM docs\python-prototype-main\template\busia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wafula Ian Elmer\Desktop\OGEFREM\python-prototype\template\busia\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1094,7 +1094,100 @@
     <xf numFmtId="4" fontId="0" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1123,99 +1216,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,8 +1649,8 @@
   </sheetPr>
   <dimension ref="B1:H32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -1667,35 +1667,35 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1"/>
     <row r="2" spans="2:8" ht="112.5" customHeight="1">
-      <c r="B2" s="67"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="69"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="64"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="2:8" ht="15.6">
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="2:8" ht="18" customHeight="1">
       <c r="B5" s="1"/>
@@ -1705,16 +1705,16 @@
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="79"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="79" t="s">
+      <c r="C6" s="69"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="7">
         <f ca="1">TODAY()</f>
-        <v>45888</v>
+        <v>45904</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1">
@@ -1727,44 +1727,44 @@
       <c r="H7" s="32"/>
     </row>
     <row r="8" spans="2:8" ht="32.700000000000003" customHeight="1">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="61"/>
     </row>
     <row r="9" spans="2:8">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="61"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="50"/>
     </row>
     <row r="10" spans="2:8">
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="2:8" ht="15.6">
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="56"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="86"/>
+      <c r="H11" s="87"/>
     </row>
     <row r="12" spans="2:8" ht="15" thickBot="1">
       <c r="B12" s="2"/>
@@ -1799,7 +1799,7 @@
       </c>
     </row>
     <row r="14" spans="2:8">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="76" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="11" t="s">
@@ -1809,22 +1809,22 @@
         <v>29</v>
       </c>
       <c r="E14" s="18">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="18">
         <f>IF(D14*E14&lt;20,20,D14*E14)</f>
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="G14" s="28">
         <v>3900</v>
       </c>
       <c r="H14" s="34">
         <f>G14*F14</f>
-        <v>78000</v>
+        <v>452400</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" thickBot="1">
-      <c r="B15" s="87"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
@@ -1847,18 +1847,18 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="20">
         <f>SUM(F14:F15)</f>
-        <v>60</v>
-      </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+        <v>156</v>
+      </c>
+      <c r="G16" s="74"/>
+      <c r="H16" s="75"/>
     </row>
     <row r="17" spans="2:8" ht="23.1" customHeight="1" thickBot="1">
       <c r="B17" s="16" t="s">
@@ -1911,10 +1911,10 @@
       </c>
     </row>
     <row r="19" spans="2:8" ht="16.2" thickBot="1">
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="22"/>
       <c r="E19" s="22"/>
       <c r="F19" s="23">
@@ -1930,12 +1930,12 @@
       </c>
     </row>
     <row r="20" spans="2:8" ht="19.2" customHeight="1" thickBot="1">
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="89"/>
-      <c r="E20" s="89"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
       <c r="F20" s="24">
         <v>0</v>
       </c>
@@ -1948,22 +1948,22 @@
       </c>
     </row>
     <row r="21" spans="2:8" ht="18.600000000000001" thickBot="1">
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="53"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="84"/>
       <c r="F21" s="38">
         <f>(F16*1.17)+F19-(F20)</f>
-        <v>73.799999999999983</v>
+        <v>186.11999999999998</v>
       </c>
       <c r="G21" s="29">
         <v>3700</v>
       </c>
       <c r="H21" s="39">
         <f>SUM(H14:H15)+H18</f>
-        <v>247320</v>
+        <v>621720</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="18" customHeight="1">
@@ -1987,33 +1987,33 @@
       <c r="H23" s="45"/>
     </row>
     <row r="24" spans="2:8" ht="21" customHeight="1">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
       <c r="F24" s="44"/>
       <c r="G24" s="45"/>
       <c r="H24" s="45"/>
     </row>
     <row r="25" spans="2:8" ht="24" customHeight="1">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
       <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="45"/>
       <c r="H25" s="45"/>
     </row>
     <row r="26" spans="2:8" ht="27.75" customHeight="1">
-      <c r="B26" s="48" t="s">
+      <c r="B26" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="45"/>
@@ -2029,12 +2029,12 @@
       <c r="H27" s="45"/>
     </row>
     <row r="28" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C28" s="50"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="50"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
       <c r="F28" s="44"/>
       <c r="G28" s="45"/>
       <c r="H28" s="45"/>
@@ -2049,13 +2049,13 @@
       <c r="H29" s="45"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1">
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
       <c r="G30" s="45"/>
       <c r="H30" s="45"/>
     </row>
@@ -2069,18 +2069,25 @@
       <c r="H31" s="45"/>
     </row>
     <row r="32" spans="2:8" ht="20.25" customHeight="1">
-      <c r="B32" s="48" t="s">
+      <c r="B32" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="45"/>
       <c r="H32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B19:C19"/>
     <mergeCell ref="B9:H9"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B16:E16"/>
@@ -2097,13 +2104,6 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B19:C19"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6">
